--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1931.043620244095</v>
+        <v>-2099.37898593552</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4282103.399033168</v>
+        <v>4173976.350778989</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>374.4268935289278</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>385.3238927773753</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>137.8963981569088</v>
       </c>
       <c r="F4" t="n">
-        <v>71.03021676555079</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>74.06216992684948</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>183.1018908273671</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>17.50725709857857</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>79.49939867199706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>74.47479140598085</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>375.566452564622</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>134.0273836739613</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>17.7649745651085</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>43.75380304944782</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>182.6892693482358</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>14.69254647175497</v>
       </c>
       <c r="G13" t="n">
-        <v>27.59166198760207</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>314.3933937027337</v>
+        <v>67.2427605264751</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.5867542297959</v>
+        <v>13.8523599663048</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>39.75864216518538</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>162.9305469213887</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.28928691739478</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>147.2267189602768</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>303.265604154082</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2241,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>137.8963981569088</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7884964950064</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>149.4370413361364</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>129.4972427124794</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>110.5399183145186</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>155.8532364480161</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>69.98849254743202</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>13.27415091459348</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>106.062636650466</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>131.7153076548727</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>346.9511760890397</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>139.994688080771</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>40.77895054455871</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>72.21462998383448</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>188.3312987796387</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>67.14725379420837</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>28.84968802901818</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>229.3993881160439</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3664,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>42.42053200086074</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>28.84968802901816</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>135.8403691422122</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>209.3055317197621</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>57.89794179285317</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.5740520320627</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>181.0765084323517</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>165.6287135617056</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>137.8963981569088</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>181.0765084323517</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>412.1526519641617</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4370,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4400,28 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8890703687</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="C4" t="n">
-        <v>441.3273588519249</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="D4" t="n">
-        <v>275.4493660534476</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="E4" t="n">
-        <v>105.6913623041849</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4486,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.8890703687</v>
+        <v>365.0515783881802</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.3927724551322</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C5" t="n">
-        <v>890.3927724551322</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W5" t="n">
-        <v>890.3927724551322</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X5" t="n">
-        <v>890.3927724551322</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y5" t="n">
-        <v>890.3927724551322</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4647,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.0928244684872</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4087263891149</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>202.9060407279401</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4726,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4747,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.930654234675</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9042498209665</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>625.5124951543789</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.0928244684872</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5685620045878</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5685620045878</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5685620045878</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4884,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N9" t="n">
         <v>739.9048540962709</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>739.9048540962709</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.4973157021125</v>
+        <v>523.1146084662527</v>
       </c>
       <c r="C10" t="n">
-        <v>368.4973157021125</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D10" t="n">
-        <v>368.4973157021125</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E10" t="n">
-        <v>368.4973157021125</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F10" t="n">
-        <v>191.7902616638687</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G10" t="n">
         <v>173.8458429112338</v>
@@ -4963,22 +4965,22 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>269.215608100497</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N10" t="n">
-        <v>1653.597487995201</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4999,13 +5001,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="Y10" t="n">
-        <v>368.4973157021125</v>
+        <v>658.4958040965166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>462.9421322372</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C11" t="n">
-        <v>462.9421322372</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D11" t="n">
-        <v>34.36045797446834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E11" t="n">
-        <v>34.36045797446834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F11" t="n">
         <v>34.36045797446834</v>
@@ -5039,7 +5041,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
         <v>453.9965675465116</v>
@@ -5069,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1652.987669424409</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1652.987669424409</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V11" t="n">
-        <v>1290.370719358236</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W11" t="n">
-        <v>1290.370719358236</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X11" t="n">
-        <v>871.2282559375466</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="Y11" t="n">
-        <v>462.9421322372</v>
+        <v>890.8095618279922</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L12" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N12" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O12" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>227.6920270441282</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="C13" t="n">
-        <v>227.6920270441282</v>
+        <v>778.5740196905466</v>
       </c>
       <c r="D13" t="n">
-        <v>61.81403424565084</v>
+        <v>612.6960268920693</v>
       </c>
       <c r="E13" t="n">
-        <v>61.81403424565084</v>
+        <v>442.9380231428066</v>
       </c>
       <c r="F13" t="n">
-        <v>61.81403424565084</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
@@ -5200,49 +5202,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L13" t="n">
-        <v>437.4083829648294</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y13" t="n">
-        <v>419.5106457631153</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1208.676101675288</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C14" t="n">
-        <v>1208.676101675288</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D14" t="n">
-        <v>780.0944274125559</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E14" t="n">
-        <v>351.5127531498242</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5279,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5303,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1613.531556264254</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>1208.676101675288</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X14" t="n">
-        <v>1208.676101675288</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y14" t="n">
-        <v>1208.676101675288</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5360,16 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N15" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O15" t="n">
         <v>739.9048540962709</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1113.00182921349</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C16" t="n">
-        <v>940.4401176967148</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D16" t="n">
-        <v>774.5621248982375</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E16" t="n">
-        <v>604.8041211489747</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F16" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M16" t="n">
-        <v>689.2685070454004</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N16" t="n">
-        <v>1109.321405990304</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O16" t="n">
-        <v>1528.990655216085</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P16" t="n">
         <v>1528.990655216085</v>
@@ -5464,22 +5466,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U16" t="n">
-        <v>1516.524240083786</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V16" t="n">
-        <v>1516.524240083786</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W16" t="n">
-        <v>1516.524240083786</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X16" t="n">
-        <v>1516.524240083786</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y16" t="n">
-        <v>1304.820447932477</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>363.2340677696905</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5540,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.531556264254</v>
+        <v>1532.607120058813</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.531556264254</v>
+        <v>1273.384817375829</v>
       </c>
       <c r="V17" t="n">
-        <v>1613.531556264254</v>
+        <v>1273.384817375829</v>
       </c>
       <c r="W17" t="n">
-        <v>1208.676101675288</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="X17" t="n">
-        <v>789.5336382545983</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y17" t="n">
-        <v>789.5336382545983</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5580,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5595,22 +5597,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5674,19 +5676,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L19" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M19" t="n">
-        <v>1181.483761245743</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N19" t="n">
-        <v>1181.483761245743</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5698,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1678.70940289113</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.829956469585</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U19" t="n">
-        <v>1154.39695572269</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V19" t="n">
-        <v>867.4414475931208</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W19" t="n">
-        <v>595.4150431794122</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X19" t="n">
-        <v>350.0232885128247</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.603617826933</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>648.8602641703436</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C20" t="n">
-        <v>648.8602641703436</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D20" t="n">
-        <v>648.8602641703436</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E20" t="n">
-        <v>648.8602641703436</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8602641703436</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2307.443876365254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1902.588421776288</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X20" t="n">
-        <v>1483.445958355598</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y20" t="n">
-        <v>1075.159834655251</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>1133.941806870223</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L21" t="n">
-        <v>2012.149109705013</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M21" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>900.7186013536161</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1568898368411</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="D22" t="n">
-        <v>562.2788970383638</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="E22" t="n">
-        <v>392.520893289101</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8138392508572</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>2402.763558715255</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U22" t="n">
-        <v>2124.330557968361</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V22" t="n">
-        <v>1837.375049838791</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W22" t="n">
-        <v>1565.348645425083</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.956890758495</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y22" t="n">
-        <v>1092.537220072603</v>
+        <v>365.0515783881802</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1940.042155003396</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C23" t="n">
-        <v>1501.899682186819</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D23" t="n">
-        <v>1065.989897361264</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E23" t="n">
-        <v>632.2151525195586</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F23" t="n">
-        <v>204.3477229287664</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L23" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M23" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N23" t="n">
-        <v>1149.495958523325</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O23" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488303</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>2366.341725488303</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.341725488303</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.341725488303</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.341725488303</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y23" t="n">
-        <v>2366.341725488303</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.1364226482442</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C25" t="n">
-        <v>749.5747111314691</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D25" t="n">
-        <v>583.6967183329918</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E25" t="n">
-        <v>413.9387145837291</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F25" t="n">
-        <v>237.2316605454853</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G25" t="n">
-        <v>71.64038557131298</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>2670.060826431428</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>2424.181380009883</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U25" t="n">
-        <v>2145.748379262989</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V25" t="n">
-        <v>1858.792871133419</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W25" t="n">
-        <v>1586.766466719711</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X25" t="n">
-        <v>1341.374712053123</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.955041367231</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1319.688691389803</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="C26" t="n">
-        <v>891.1070171270717</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="D26" t="n">
-        <v>462.52534286434</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6227,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>1477.116202953456</v>
+        <v>1585.526946934439</v>
       </c>
       <c r="X26" t="n">
-        <v>1477.116202953456</v>
+        <v>1585.526946934439</v>
       </c>
       <c r="Y26" t="n">
-        <v>1319.688691389803</v>
+        <v>1177.240823234092</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6302,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J27" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K27" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L27" t="n">
         <v>1159.957753041174</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>940.4401176967148</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C28" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D28" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E28" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F28" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6409,25 +6411,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U28" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V28" t="n">
-        <v>1605.070161768181</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W28" t="n">
-        <v>1605.070161768181</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.678407101594</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.258736415702</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C29" t="n">
-        <v>724.4716545351282</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D29" t="n">
-        <v>724.4716545351282</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E29" t="n">
-        <v>724.4716545351282</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F29" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6488,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U29" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V29" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W29" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X29" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y29" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
         <v>1159.957753041174</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.8484307043673</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C31" t="n">
-        <v>546.2867191875922</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E31" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F31" t="n">
         <v>33.94366860160834</v>
@@ -6619,22 +6621,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.483761245743</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N31" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1291.875698540254</v>
       </c>
       <c r="P31" t="n">
         <v>1528.990655216085</v>
@@ -6643,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1516.524240083786</v>
+        <v>1590.049453665805</v>
       </c>
       <c r="T31" t="n">
-        <v>1516.524240083786</v>
+        <v>1344.17000724426</v>
       </c>
       <c r="U31" t="n">
-        <v>1516.524240083786</v>
+        <v>1065.737006497366</v>
       </c>
       <c r="V31" t="n">
-        <v>1516.524240083786</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.478474775834</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X31" t="n">
-        <v>1138.086720109246</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y31" t="n">
-        <v>910.6670494233545</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.4906125312521</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C32" t="n">
-        <v>323.4906125312521</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="D32" t="n">
-        <v>323.4906125312521</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="E32" t="n">
-        <v>323.4906125312521</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="F32" t="n">
-        <v>323.4906125312521</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G32" t="n">
         <v>323.4906125312521</v>
@@ -6728,22 +6730,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1555.774654241255</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1555.774654241255</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V32" t="n">
-        <v>1555.774654241255</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W32" t="n">
-        <v>1150.919199652288</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X32" t="n">
-        <v>731.7767362315986</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y32" t="n">
-        <v>323.4906125312521</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6776,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
         <v>1159.957753041174</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1024.341879988165</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C34" t="n">
-        <v>851.7801684713901</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D34" t="n">
-        <v>685.9021756729128</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E34" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F34" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
         <v>33.94366860160834</v>
@@ -6865,10 +6867,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6880,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T34" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U34" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V34" t="n">
-        <v>1516.524240083786</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="W34" t="n">
-        <v>1516.524240083786</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="X34" t="n">
-        <v>1443.580169393044</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y34" t="n">
-        <v>1216.160498707152</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C35" t="n">
-        <v>435.7582893512044</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D35" t="n">
-        <v>435.7582893512044</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E35" t="n">
-        <v>435.7582893512044</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F35" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K35" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L35" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M35" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N35" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O35" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U35" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V35" t="n">
-        <v>1030.847379071119</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W35" t="n">
-        <v>625.9919244821526</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X35" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y35" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="36">
@@ -7020,7 +7022,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
         <v>1159.957753041174</v>
@@ -7032,7 +7034,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.8484307043673</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C37" t="n">
-        <v>546.2867191875922</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D37" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F37" t="n">
         <v>33.94366860160834</v>
@@ -7093,19 +7095,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7117,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1451.303983658873</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V37" t="n">
-        <v>1451.303983658873</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W37" t="n">
-        <v>1383.478474775834</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X37" t="n">
-        <v>1138.086720109246</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y37" t="n">
-        <v>910.6670494233545</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>464.8993883704147</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C38" t="n">
-        <v>464.8993883704147</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D38" t="n">
-        <v>464.8993883704147</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E38" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F38" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7184,7 +7186,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7205,19 +7207,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W38" t="n">
-        <v>1292.327975491451</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X38" t="n">
-        <v>873.1855120707613</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="Y38" t="n">
-        <v>464.8993883704147</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="39">
@@ -7230,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7239,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1113.00182921349</v>
+        <v>419.1124060907378</v>
       </c>
       <c r="C40" t="n">
-        <v>940.4401176967148</v>
+        <v>246.5506945739627</v>
       </c>
       <c r="D40" t="n">
-        <v>774.5621248982375</v>
+        <v>246.5506945739627</v>
       </c>
       <c r="E40" t="n">
-        <v>604.8041211489747</v>
+        <v>76.7926908247</v>
       </c>
       <c r="F40" t="n">
-        <v>428.0970671107308</v>
+        <v>76.7926908247</v>
       </c>
       <c r="G40" t="n">
-        <v>262.5057921365585</v>
+        <v>76.7926908247</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M40" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O40" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U40" t="n">
-        <v>1697.183430080417</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V40" t="n">
-        <v>1697.183430080417</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W40" t="n">
-        <v>1697.183430080417</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X40" t="n">
-        <v>1532.240118618369</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="Y40" t="n">
-        <v>1304.820447932477</v>
+        <v>610.9310248097249</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>464.8993883704147</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C41" t="n">
-        <v>464.8993883704147</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D41" t="n">
-        <v>464.8993883704147</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E41" t="n">
-        <v>464.8993883704147</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F41" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>63.50155699367861</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7412,19 +7414,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7448,13 +7450,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W41" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X41" t="n">
-        <v>873.1855120707613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y41" t="n">
-        <v>464.8993883704147</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7481,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.6817019292769</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1199904125018</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D43" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E43" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
         <v>33.94366860160834</v>
@@ -7591,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.311746000743</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.311746000743</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V43" t="n">
-        <v>1379.311746000743</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W43" t="n">
-        <v>1379.311746000743</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X43" t="n">
-        <v>1133.919991334156</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.5003206482641</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.3060337294069</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C44" t="n">
-        <v>541.4004696563243</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D44" t="n">
-        <v>380.2972488207532</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E44" t="n">
-        <v>197.3916847476707</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F44" t="n">
-        <v>14.48612067458814</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>373.0176073706446</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>552.2833507186728</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>555.1519689763501</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>555.1519689763501</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>555.1519689763501</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>555.1519689763501</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V44" t="n">
-        <v>724.3060337294069</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W44" t="n">
-        <v>724.3060337294069</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X44" t="n">
-        <v>724.3060337294069</v>
+        <v>871.2282559375466</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.3060337294069</v>
+        <v>462.9421322372</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>108.6065353476344</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>108.6065353476344</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>108.6065353476344</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48612067458814</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>14.48612067458814</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>40.54979383504573</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>40.54979383504573</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>399.0812805311022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
-        <v>399.0812805311022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>724.3060337294069</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>724.3060337294069</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>547.9694867293751</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>547.9694867293751</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>365.0639226562926</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>210.1964868951725</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>210.1964868951725</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>358.4949055832417</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="C46" t="n">
-        <v>358.4949055832417</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="D46" t="n">
-        <v>358.4949055832417</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="E46" t="n">
-        <v>191.1931747128319</v>
+        <v>173.2329596691931</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>101.065805839278</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>101.065805839278</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>101.065805839278</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M46" t="n">
-        <v>280.3315491873062</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N46" t="n">
-        <v>280.3315491873062</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O46" t="n">
-        <v>376.8475155170465</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>724.3060337294069</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U46" t="n">
-        <v>724.3060337294069</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V46" t="n">
-        <v>541.4004696563243</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W46" t="n">
-        <v>541.4004696563243</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X46" t="n">
-        <v>358.4949055832417</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y46" t="n">
-        <v>358.4949055832417</v>
+        <v>365.0515783881802</v>
       </c>
     </row>
   </sheetData>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8134,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>298.8178948332412</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8374,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8532,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>358.9284720888815</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8611,10 +8613,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201043</v>
@@ -8623,13 +8625,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L12" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8848,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9006,19 +9008,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
@@ -9082,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9243,25 +9245,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9322,22 +9324,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,13 +9482,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9565,10 +9567,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9577,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9802,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9875,22 +9877,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10267,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>239.5100572483138</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10513,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10668,10 +10670,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10753,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10832,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.897594199674131</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,28 +11375,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11455,22 +11457,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.49087508054578</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>22.95695953404089</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22610,10 +22612,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>18.87936968596779</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.16402555486127</v>
       </c>
       <c r="F4" t="n">
-        <v>103.9097667323105</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -22771,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22787,22 +22789,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>349.5265853680348</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,16 +22840,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>217.7050092157099</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22942,25 +22944,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>153.3288373030287</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>59.00375389453217</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>354.9622059873069</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>21.81740049834679</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,13 +23080,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>55.87304885783593</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>146.1703876593221</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23239,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23267,7 +23269,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23309,10 +23311,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>174.1127518062439</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>232.2617694382466</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>160.2474370261064</v>
       </c>
       <c r="G13" t="n">
-        <v>136.3437002368285</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23500,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>109.1953615921506</v>
+        <v>356.3459947684092</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -23552,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5587197492369</v>
+        <v>211.293114012728</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>394.0024059232255</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23747,7 +23749,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>54.93600793430306</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23908,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.3596680975885</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>274.8098558197819</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23981,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>94.11824890888676</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>37.04358534095249</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424235</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>247.9468117268323</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>271.3096573305976</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24494,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24503,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>290.2669817285584</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>248.350026015327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -24658,16 +24660,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>214.0974605008418</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>211.8713230644393</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>368.2691511520045</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>51.58631836451733</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>137.5908327146986</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24926,10 +24928,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>76.63757920584459</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>77.87186677492073</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>243.3070025037151</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>170.7232071360872</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,25 +25156,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>226.6197400068437</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>202.158886575363</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>400.5873093642696</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25409,7 +25411,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,16 +25447,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>185.5516506704385</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>96.08262056566849</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25603,16 +25605,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>79.64395877249362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>257.3891649821977</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>107.5802828151171</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>15.83994225927071</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25867,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>252.6845396560592</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>272.0584983500846</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>248.360488960936</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>242.5122468625326</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>357.0530969936293</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.51681003690278</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.393018291786206</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26029,10 +26031,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>2.431710150064475</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>37.04358534095249</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0094446159221</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>61.86132868756994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360973.1018379629</v>
+        <v>360973.101837963</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507801.8415731688</v>
+        <v>360973.101837963</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507801.8415731687</v>
+        <v>360973.101837963</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>360973.101837963</v>
+        <v>360973.1018379629</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154052.2910142174</v>
+        <v>360973.101837963</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534781</v>
       </c>
       <c r="C2" t="n">
         <v>78131.51941534778</v>
       </c>
       <c r="D2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="E2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="F2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="G2" t="n">
         <v>78131.51941534778</v>
       </c>
       <c r="H2" t="n">
-        <v>109912.1492488192</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="I2" t="n">
-        <v>109912.1492488192</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="J2" t="n">
         <v>78131.51941534779</v>
@@ -26344,16 +26346,16 @@
         <v>78131.51941534778</v>
       </c>
       <c r="M2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534781</v>
       </c>
       <c r="N2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="O2" t="n">
-        <v>78131.51941534781</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="P2" t="n">
-        <v>33344.14532570664</v>
+        <v>78131.51941534779</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>18764.36858177456</v>
       </c>
       <c r="H4" t="n">
-        <v>26396.92784106698</v>
+        <v>18764.36858177456</v>
       </c>
       <c r="I4" t="n">
-        <v>26396.92784106698</v>
+        <v>18764.36858177456</v>
       </c>
       <c r="J4" t="n">
         <v>18764.36858177456</v>
@@ -26457,7 +26459,7 @@
         <v>18764.36858177456</v>
       </c>
       <c r="P4" t="n">
-        <v>8008.059200918455</v>
+        <v>18764.36858177456</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-57.63730364912772</v>
       </c>
       <c r="D6" t="n">
-        <v>-57.63730364911316</v>
+        <v>-57.63730364912044</v>
       </c>
       <c r="E6" t="n">
         <v>33569.96269635089</v>
       </c>
       <c r="F6" t="n">
+        <v>33569.96269635088</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33569.96269635088</v>
+      </c>
+      <c r="H6" t="n">
         <v>33569.96269635089</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>33569.96269635087</v>
       </c>
-      <c r="H6" t="n">
-        <v>-22692.47251202295</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42930.2968459945</v>
-      </c>
       <c r="J6" t="n">
-        <v>-13807.61927592335</v>
+        <v>-77444.50264863929</v>
       </c>
       <c r="K6" t="n">
+        <v>33569.96269635088</v>
+      </c>
+      <c r="L6" t="n">
         <v>33569.96269635087</v>
       </c>
-      <c r="L6" t="n">
-        <v>33569.96269635088</v>
-      </c>
       <c r="M6" t="n">
-        <v>33569.96269635088</v>
+        <v>33569.96269635091</v>
       </c>
       <c r="N6" t="n">
-        <v>33569.96269635088</v>
+        <v>33569.96269635089</v>
       </c>
       <c r="O6" t="n">
-        <v>33569.96269635091</v>
+        <v>33569.96269635089</v>
       </c>
       <c r="P6" t="n">
-        <v>14326.6344121012</v>
+        <v>33569.96269635089</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>298.8178948332412</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35094,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35252,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>358.9284720888815</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35331,10 +35333,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>424.2958575201043</v>
@@ -35343,13 +35345,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L12" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35568,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35726,19 +35728,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>424.2958575201044</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35963,25 +35965,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36042,22 +36044,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,19 +36287,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36437,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,16 +36524,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36595,22 +36597,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>239.5100572483138</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37233,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37388,10 +37390,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -37473,10 +37475,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37552,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.897594199674131</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.49087508054578</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2099.37898593552</v>
+        <v>-8334.696485090499</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493688</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -658,14 +658,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.350305051013968</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>385.3238927773753</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8963981569088</v>
+        <v>27.98656486384182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>262.6429155516412</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>74.06216992684948</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>79.49939867199706</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>171.1017760806757</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>424.2958575201043</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>375.566452564622</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>117.0897116475545</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.0273836739613</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>90.56719172652049</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>182.6892693482358</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>14.69254647175497</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.0039784639889</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>183.1018908273671</v>
       </c>
       <c r="F14" t="n">
-        <v>67.2427605264751</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1818,22 +1818,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>72.21462998383448</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.8523599663048</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9207406456938</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>162.9305469213887</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>125.4289004454252</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.2267189602768</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>375.566452564622</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>137.8963981569088</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>129.4972427124794</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>159.582856075998</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.5867542297959</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>165.4925359277266</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>110.5399183145186</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.27415091459348</v>
+        <v>41.65651908787338</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>223.0049746635228</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>85.40577439853043</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>106.062636650466</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>376.273554789842</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F32" t="n">
-        <v>346.9511760890397</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3243,16 +3243,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>40.77895054455871</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>104.4701125287205</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>374.4268935289279</v>
+        <v>415.7360957236953</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.85899356878446</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>31.87724488346594</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>240.2910377548343</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>229.3993881160439</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>42.42053200086074</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>132.7070115350337</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3745,22 +3745,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
-        <v>373.7197913037078</v>
+        <v>317.4038192037106</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>174.0604902725265</v>
       </c>
       <c r="Y43" t="n">
-        <v>209.3055317197621</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>72.62525989088326</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>57.89794179285317</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>137.8963981569088</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.8182787134664891</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.52534286434</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>464.8993883704147</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>36.31771410768306</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>36.31771410768306</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>36.31771410768306</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.040966659728</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>888.8249133492478</v>
+        <v>464.8993883704147</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.2329596691931</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C4" t="n">
-        <v>173.2329596691931</v>
+        <v>228.0909188383097</v>
       </c>
       <c r="D4" t="n">
-        <v>173.2329596691931</v>
+        <v>62.21292603983241</v>
       </c>
       <c r="E4" t="n">
         <v>33.94366860160834</v>
@@ -4488,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4533,7 +4533,7 @@
         <v>592.4712490740719</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.0515783881802</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.5685620045878</v>
+        <v>299.6563322690554</v>
       </c>
       <c r="C5" t="n">
-        <v>510.5685620045878</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D5" t="n">
-        <v>510.5685620045878</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E5" t="n">
-        <v>510.5685620045878</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
         <v>34.36045797446834</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y5" t="n">
-        <v>510.5685620045878</v>
+        <v>725.9559027539632</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,22 +4649,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.4973157021125</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="C7" t="n">
-        <v>368.4973157021125</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="D7" t="n">
-        <v>368.4973157021125</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E7" t="n">
-        <v>368.4973157021125</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4973157021125</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>202.9060407279401</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4728,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4752,25 +4752,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1119.232538107702</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>873.8407834411144</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.4973157021125</v>
+        <v>873.8407834411144</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.883859595509</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.883859595509</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D8" t="n">
-        <v>842.3021853327778</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E8" t="n">
-        <v>413.7205110700461</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>413.7205110700461</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1578.910994072786</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.183430080417</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.1146084662527</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5528969494776</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5528969494776</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5528969494776</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4962,22 +4962,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K10" t="n">
-        <v>269.215608100497</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W10" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X10" t="n">
-        <v>885.9154747824084</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y10" t="n">
-        <v>658.4958040965166</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>890.8095618279922</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C11" t="n">
-        <v>890.8095618279922</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2278875652606</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2278875652606</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="F11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5074,19 +5074,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>890.8095618279922</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>890.8095618279922</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="12">
@@ -5135,10 +5135,10 @@
         <v>384.5656667282782</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.1357312073217</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C13" t="n">
-        <v>778.5740196905466</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D13" t="n">
-        <v>612.6960268920693</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E13" t="n">
-        <v>442.9380231428066</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K13" t="n">
-        <v>308.7021231727439</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L13" t="n">
-        <v>726.9120049407049</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M13" t="n">
-        <v>726.9120049407049</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N13" t="n">
         <v>761.8145120199619</v>
@@ -5241,10 +5241,10 @@
         <v>951.1357312073217</v>
       </c>
       <c r="X13" t="n">
-        <v>951.1357312073217</v>
+        <v>733.9599953851107</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.1357312073217</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2824383042412</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C14" t="n">
-        <v>102.2824383042412</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="D14" t="n">
-        <v>102.2824383042412</v>
+        <v>646.762503068529</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2824383042412</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5311,19 +5311,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X14" t="n">
-        <v>510.5685620045878</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2824383042412</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5360,19 +5360,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.8458429112338</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C16" t="n">
-        <v>173.8458429112338</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D16" t="n">
-        <v>173.8458429112338</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E16" t="n">
-        <v>173.8458429112338</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F16" t="n">
-        <v>173.8458429112338</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G16" t="n">
         <v>173.8458429112338</v>
@@ -5436,22 +5436,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
         <v>1528.990655216085</v>
@@ -5466,22 +5466,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U16" t="n">
-        <v>992.2117929153466</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V16" t="n">
-        <v>705.2562847857771</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W16" t="n">
-        <v>433.2298803720686</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X16" t="n">
-        <v>187.8381257054811</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.8458429112338</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.94366860160834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C17" t="n">
-        <v>33.94366860160834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G17" t="n">
         <v>33.94366860160834</v>
@@ -5542,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1532.607120058813</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>1273.384817375829</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V17" t="n">
-        <v>1273.384817375829</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W17" t="n">
-        <v>868.5293627868627</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X17" t="n">
-        <v>868.5293627868627</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y17" t="n">
-        <v>460.2432390865162</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G19" t="n">
         <v>33.94366860160834</v>
@@ -5676,19 +5676,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>540.5762527112014</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N19" t="n">
-        <v>960.6291516561047</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O19" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5697,28 +5697,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>724.4716545351282</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C20" t="n">
-        <v>724.4716545351282</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="D20" t="n">
-        <v>724.4716545351282</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E20" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F20" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G20" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5791,13 +5791,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>873.1855120707613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>873.1855120707613</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5834,10 +5834,10 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
         <v>1159.957753041174</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.2329596691931</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C22" t="n">
-        <v>173.2329596691931</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D22" t="n">
-        <v>173.2329596691931</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E22" t="n">
-        <v>173.2329596691931</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I22" t="n">
         <v>33.94366860160834</v>
@@ -5913,22 +5913,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M22" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N22" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5937,25 +5937,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1151.45316161735</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V22" t="n">
-        <v>864.4976534877803</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W22" t="n">
-        <v>592.4712490740719</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X22" t="n">
-        <v>592.4712490740719</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y22" t="n">
-        <v>365.0515783881802</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C23" t="n">
-        <v>724.4716545351282</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="D23" t="n">
-        <v>724.4716545351282</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E23" t="n">
-        <v>724.4716545351282</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F23" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
         <v>687.9235674375537</v>
@@ -6019,22 +6019,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y23" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1113.00182921349</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M25" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N25" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O25" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P25" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>1516.524240083786</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U25" t="n">
-        <v>1516.524240083786</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V25" t="n">
-        <v>1516.524240083786</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W25" t="n">
-        <v>1516.524240083786</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X25" t="n">
-        <v>1516.524240083786</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y25" t="n">
-        <v>1304.820447932477</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>750.9412527491843</v>
+        <v>1057.973739532767</v>
       </c>
       <c r="C26" t="n">
-        <v>750.9412527491843</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D26" t="n">
-        <v>750.9412527491843</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E26" t="n">
-        <v>750.9412527491843</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F26" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
@@ -6229,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6256,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W26" t="n">
-        <v>1585.526946934439</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X26" t="n">
-        <v>1585.526946934439</v>
+        <v>1057.973739532767</v>
       </c>
       <c r="Y26" t="n">
-        <v>1177.240823234092</v>
+        <v>1057.973739532767</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,37 +6293,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P27" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1024.341879988165</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="C28" t="n">
-        <v>851.7801684713901</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D28" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F28" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6390,13 +6390,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M28" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N28" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6417,19 +6417,19 @@
         <v>1516.524240083786</v>
       </c>
       <c r="U28" t="n">
-        <v>1516.524240083786</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V28" t="n">
-        <v>1229.568731954216</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W28" t="n">
-        <v>1229.568731954216</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X28" t="n">
-        <v>1229.568731954216</v>
+        <v>433.7175721270257</v>
       </c>
       <c r="Y28" t="n">
-        <v>1216.160498707152</v>
+        <v>391.6402801190728</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.183430080417</v>
+        <v>688.1996824023746</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.601755817686</v>
+        <v>688.1996824023746</v>
       </c>
       <c r="D29" t="n">
-        <v>840.020081554954</v>
+        <v>688.1996824023746</v>
       </c>
       <c r="E29" t="n">
-        <v>411.4384072922223</v>
+        <v>259.6180081396429</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>259.6180081396429</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6493,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.94366860160834</v>
+        <v>466.6771853775295</v>
       </c>
       <c r="C31" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F31" t="n">
         <v>33.94366860160834</v>
@@ -6621,22 +6621,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
-        <v>1291.875698540254</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
         <v>1528.990655216085</v>
@@ -6648,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1590.049453665805</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1344.17000724426</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U31" t="n">
-        <v>1065.737006497366</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V31" t="n">
-        <v>778.7814983677961</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W31" t="n">
-        <v>506.7550939540876</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X31" t="n">
-        <v>261.3633392875001</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="Y31" t="n">
-        <v>33.94366860160834</v>
+        <v>658.4958040965166</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1075.344177331261</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C32" t="n">
-        <v>1075.344177331261</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D32" t="n">
-        <v>1075.344177331261</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E32" t="n">
-        <v>1075.344177331261</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F32" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G32" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H32" t="n">
         <v>34.36045797446834</v>
@@ -6733,19 +6733,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V32" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W32" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X32" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y32" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="33">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.8484307043673</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C34" t="n">
-        <v>546.2867191875922</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D34" t="n">
         <v>380.4087263891149</v>
@@ -6867,10 +6867,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N34" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6891,19 +6891,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U34" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V34" t="n">
-        <v>1410.113124522955</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W34" t="n">
-        <v>1138.086720109246</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X34" t="n">
-        <v>1138.086720109246</v>
+        <v>780.3901085917817</v>
       </c>
       <c r="Y34" t="n">
-        <v>910.6670494233545</v>
+        <v>552.97043790589</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.974446717864</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D35" t="n">
-        <v>890.3927724551322</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E35" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G35" t="n">
         <v>33.94366860160834</v>
@@ -6937,19 +6937,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.94366860160834</v>
+        <v>682.043550975749</v>
       </c>
       <c r="C37" t="n">
-        <v>33.94366860160834</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="D37" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7095,19 +7095,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7131,16 +7131,16 @@
         <v>1151.45316161735</v>
       </c>
       <c r="V37" t="n">
-        <v>864.4976534877803</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W37" t="n">
-        <v>592.4712490740719</v>
+        <v>1119.253924361324</v>
       </c>
       <c r="X37" t="n">
-        <v>347.0794944074844</v>
+        <v>873.8621696947362</v>
       </c>
       <c r="Y37" t="n">
-        <v>119.6598237215927</v>
+        <v>873.8621696947362</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>435.3414999783445</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C38" t="n">
-        <v>435.3414999783445</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D38" t="n">
-        <v>435.3414999783445</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="E38" t="n">
-        <v>435.3414999783445</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="F38" t="n">
-        <v>435.3414999783445</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W38" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X38" t="n">
-        <v>843.6276236786911</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y38" t="n">
-        <v>435.3414999783445</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.1124060907378</v>
+        <v>796.3926008656205</v>
       </c>
       <c r="C40" t="n">
-        <v>246.5506945739627</v>
+        <v>623.8308893488454</v>
       </c>
       <c r="D40" t="n">
-        <v>246.5506945739627</v>
+        <v>457.9528965503681</v>
       </c>
       <c r="E40" t="n">
-        <v>76.7926908247</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F40" t="n">
-        <v>76.7926908247</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G40" t="n">
-        <v>76.7926908247</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H40" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
@@ -7335,19 +7335,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>269.215608100497</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2818083374338</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M40" t="n">
-        <v>815.3347072823371</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N40" t="n">
-        <v>1181.483761245743</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P40" t="n">
         <v>1528.990655216085</v>
@@ -7362,22 +7362,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U40" t="n">
-        <v>1397.332608038895</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V40" t="n">
-        <v>1110.377099909325</v>
+        <v>1295.838675965221</v>
       </c>
       <c r="W40" t="n">
-        <v>838.3506954956167</v>
+        <v>1023.812271551512</v>
       </c>
       <c r="X40" t="n">
-        <v>838.3506954956167</v>
+        <v>1023.812271551512</v>
       </c>
       <c r="Y40" t="n">
-        <v>610.9310248097249</v>
+        <v>796.3926008656205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.601755817686</v>
+        <v>1184.949882001523</v>
       </c>
       <c r="D41" t="n">
-        <v>840.020081554954</v>
+        <v>1184.949882001523</v>
       </c>
       <c r="E41" t="n">
-        <v>411.4384072922223</v>
+        <v>756.3682077387909</v>
       </c>
       <c r="F41" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7414,16 +7414,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="42">
@@ -7569,25 +7569,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M43" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N43" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P43" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7611,10 +7611,10 @@
         <v>613.8890703687</v>
       </c>
       <c r="X43" t="n">
-        <v>613.8890703687</v>
+        <v>438.0703933257439</v>
       </c>
       <c r="Y43" t="n">
-        <v>402.4693413588393</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>462.9421322372</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C44" t="n">
-        <v>34.36045797446834</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D44" t="n">
-        <v>34.36045797446834</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E44" t="n">
-        <v>34.36045797446834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F44" t="n">
         <v>34.36045797446834</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.566480014244</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W44" t="n">
-        <v>929.7110254252771</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X44" t="n">
-        <v>871.2282559375466</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y44" t="n">
-        <v>462.9421322372</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7727,22 +7727,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L45" t="n">
-        <v>804.6185656731816</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M45" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N45" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O45" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P45" t="n">
         <v>1159.957753041174</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.2329596691931</v>
+        <v>546.8265455183039</v>
       </c>
       <c r="C46" t="n">
-        <v>173.2329596691931</v>
+        <v>546.8265455183039</v>
       </c>
       <c r="D46" t="n">
-        <v>173.2329596691931</v>
+        <v>546.8265455183039</v>
       </c>
       <c r="E46" t="n">
-        <v>173.2329596691931</v>
+        <v>377.0685417690411</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>200.3614877307973</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>34.770212756625</v>
       </c>
       <c r="H46" t="n">
         <v>33.94366860160834</v>
@@ -7812,13 +7812,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M46" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N46" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O46" t="n">
         <v>1181.483761245743</v>
@@ -7833,25 +7833,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.45316161735</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V46" t="n">
-        <v>864.4976534877803</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="W46" t="n">
-        <v>592.4712490740719</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="X46" t="n">
-        <v>592.4712490740719</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="Y46" t="n">
-        <v>365.0515783881802</v>
+        <v>738.6451642372911</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8376,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8929,22 +8929,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9008,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9324,22 +9324,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9482,13 +9482,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>371.7091627680287</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L27" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L27" t="n">
-        <v>385.2554146752024</v>
-      </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10038,7 +10038,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,13 +10281,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
-        <v>239.5100572483138</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10755,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10983,22 +10983,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N40" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N40" t="n">
-        <v>369.8475292559658</v>
-      </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11062,7 +11062,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,19 +11226,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P45" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -11460,7 +11460,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M46" t="n">
         <v>424.2958575201044</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22561,7 +22561,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>395.0335480119548</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22609,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.87936968596779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>30.16402555486127</v>
+        <v>140.0738588479283</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -22773,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>171.1181325367697</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22795,10 +22795,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>349.5265853680348</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.00375389453217</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>98.20436428889565</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>7.254829457195569</v>
@@ -23035,13 +23035,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>21.81740049834679</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>100.7768432081372</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.87304885783593</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>152.3706453934012</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>47.60968125113101</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23278,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>232.2617694382466</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>160.2474370261064</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>27.9338586559328</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -23500,13 +23500,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>246.3351065659207</v>
       </c>
       <c r="F14" t="n">
-        <v>356.3459947684092</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>170.7232071360872</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.293114012728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,10 +23743,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>90.66801464919052</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>54.93600793430306</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>117.991751511904</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.8098558197819</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>58.19459552378896</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>37.04358534095249</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>59.74677603861437</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>271.3096573305976</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>83.83779588133126</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.5587197492369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>268.2685121606843</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24460,10 +24460,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>290.2669817285584</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24657,19 +24657,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.8713230644393</v>
+        <v>183.4889548911594</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>174.3788783994459</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>85.43032000307689</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>51.58631836451733</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>57.48749329856889</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F32" t="n">
-        <v>76.63757920584459</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>243.3070025037151</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>138.4677245912012</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>59.33415455948301</v>
+        <v>18.02495236471566</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25207,13 +25207,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0414389630128</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -25329,7 +25329,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>237.4288954861054</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25405,13 +25405,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>157.0928153081344</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>185.5516506704385</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>96.08262056566849</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>151.3789415132402</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
-        <v>49.86896399117649</v>
+        <v>106.1849360911737</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>68.87734684739513</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.83994225927071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>350.963495404001</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>357.0530969936293</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>37.04358534095249</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>137.6848738530627</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>360973.1018379629</v>
+        <v>360973.101837963</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360973.101837963</v>
+        <v>360973.1018379631</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360973.101837963</v>
+        <v>360973.1018379629</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78131.51941534781</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="C2" t="n">
         <v>78131.51941534778</v>
       </c>
       <c r="D2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="E2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="F2" t="n">
+        <v>78131.51941534779</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78131.51941534776</v>
+      </c>
+      <c r="H2" t="n">
         <v>78131.51941534778</v>
       </c>
-      <c r="G2" t="n">
-        <v>78131.51941534778</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>78131.51941534779</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78131.51941534778</v>
       </c>
       <c r="J2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="K2" t="n">
+        <v>78131.51941534779</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78131.51941534781</v>
+      </c>
+      <c r="M2" t="n">
         <v>78131.51941534778</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>78131.51941534778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>78131.51941534781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>78131.51941534779</v>
       </c>
       <c r="O2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="P2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142248.937963359</v>
+        <v>-142988.2945752747</v>
       </c>
       <c r="C6" t="n">
-        <v>-57.63730364912772</v>
+        <v>-796.9939155647741</v>
       </c>
       <c r="D6" t="n">
-        <v>-57.63730364912044</v>
+        <v>-796.9939155647668</v>
       </c>
       <c r="E6" t="n">
-        <v>33569.96269635089</v>
+        <v>32830.60608443524</v>
       </c>
       <c r="F6" t="n">
-        <v>33569.96269635088</v>
+        <v>32830.60608443524</v>
       </c>
       <c r="G6" t="n">
-        <v>33569.96269635088</v>
+        <v>32830.60608443521</v>
       </c>
       <c r="H6" t="n">
-        <v>33569.96269635089</v>
+        <v>32830.60608443522</v>
       </c>
       <c r="I6" t="n">
-        <v>33569.96269635087</v>
+        <v>32830.60608443524</v>
       </c>
       <c r="J6" t="n">
-        <v>-77444.50264863929</v>
+        <v>-78183.85926055495</v>
       </c>
       <c r="K6" t="n">
-        <v>33569.96269635088</v>
+        <v>32830.60608443524</v>
       </c>
       <c r="L6" t="n">
-        <v>33569.96269635087</v>
+        <v>32830.60608443525</v>
       </c>
       <c r="M6" t="n">
-        <v>33569.96269635091</v>
+        <v>32830.60608443523</v>
       </c>
       <c r="N6" t="n">
-        <v>33569.96269635089</v>
+        <v>32830.60608443523</v>
       </c>
       <c r="O6" t="n">
-        <v>33569.96269635089</v>
+        <v>32830.60608443524</v>
       </c>
       <c r="P6" t="n">
-        <v>33569.96269635089</v>
+        <v>32830.60608443523</v>
       </c>
     </row>
   </sheetData>
@@ -34780,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35096,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -35649,22 +35649,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35728,10 +35728,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35965,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36044,22 +36044,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36202,13 +36202,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -36299,7 +36299,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>371.7091627680287</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L27" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L27" t="n">
-        <v>385.2554146752024</v>
-      </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36758,7 +36758,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36767,7 +36767,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -37001,13 +37001,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
-        <v>239.5100572483138</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37235,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -37475,10 +37475,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37703,22 +37703,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N40" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N40" t="n">
-        <v>369.8475292559658</v>
-      </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37782,7 +37782,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,19 +37946,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P45" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M46" t="n">
         <v>424.2958575201044</v>
@@ -38189,7 +38189,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
